--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PDRMYE\ENTREGABLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INAP-QA\Documents\GITHUB\All-documents-\PDRMYE\ENTREGABLES\Matriz de Puebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2963" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="203">
   <si>
     <t xml:space="preserve">Matriz de Pruebas </t>
   </si>
@@ -703,9 +703,6 @@
     <t xml:space="preserve">Generación Correcta / Mensaje de confirmación </t>
   </si>
   <si>
-    <t>PDRMYE-232</t>
-  </si>
-  <si>
     <t xml:space="preserve">Borrado Correcto </t>
   </si>
   <si>
@@ -714,12 +711,24 @@
   <si>
     <t>l</t>
   </si>
+  <si>
+    <t>1. PDRMYE-262</t>
+  </si>
+  <si>
+    <t>PDRMYE-265</t>
+  </si>
+  <si>
+    <t>PDRMYE-266</t>
+  </si>
+  <si>
+    <t>PDRMYE-267</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +787,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF42526E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1010,7 +1025,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1102,6 +1117,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
@@ -1166,6 +1185,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1215,7 +1238,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1582,9 +1604,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -1996,7 +2016,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2128,7 +2147,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2459,7 +2477,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2580,7 +2597,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3814,7 +3830,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5737,6 +5752,58 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>285</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>914400</xdr:colOff>
+          <xdr:row>286</xdr:row>
+          <xdr:rowOff>22151</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3074" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -5848,7 +5915,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -11568,91 +11635,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
-  <location ref="A24:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item h="1" x="0"/>
-        <item m="1" x="7"/>
-        <item m="1" x="8"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11769,8 +11752,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:I52" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11957,6 +11940,90 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+  <location ref="A24:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item h="1" x="0"/>
+        <item m="1" x="7"/>
+        <item m="1" x="8"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -12232,13 +12299,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N355"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="M294" sqref="M294:M295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19928,7 +19995,10 @@
         <v>59</v>
       </c>
       <c r="L232" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M232" s="38" t="s">
+        <v>201</v>
       </c>
       <c r="N232" s="1">
         <v>45037</v>
@@ -20498,8 +20568,8 @@
       <c r="L252" t="s">
         <v>84</v>
       </c>
-      <c r="M252" s="18" t="s">
-        <v>196</v>
+      <c r="M252" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N252" s="1">
         <v>45037</v>
@@ -20536,8 +20606,8 @@
       <c r="L253" t="s">
         <v>84</v>
       </c>
-      <c r="M253" s="18" t="s">
-        <v>196</v>
+      <c r="M253" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N253" s="1">
         <v>45037</v>
@@ -20574,8 +20644,8 @@
       <c r="L254" t="s">
         <v>84</v>
       </c>
-      <c r="M254" s="18" t="s">
-        <v>196</v>
+      <c r="M254" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N254" s="1">
         <v>45037</v>
@@ -20612,8 +20682,8 @@
       <c r="L255" t="s">
         <v>84</v>
       </c>
-      <c r="M255" s="18" t="s">
-        <v>196</v>
+      <c r="M255" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N255" s="1">
         <v>45037</v>
@@ -20650,8 +20720,8 @@
       <c r="L256" t="s">
         <v>86</v>
       </c>
-      <c r="M256" s="18" t="s">
-        <v>196</v>
+      <c r="M256" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N256" s="1">
         <v>45037</v>
@@ -20946,8 +21016,8 @@
       <c r="L266" t="s">
         <v>86</v>
       </c>
-      <c r="M266" s="18" t="s">
-        <v>196</v>
+      <c r="M266" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N266" s="1">
         <v>45040</v>
@@ -20990,8 +21060,8 @@
       <c r="L267" t="s">
         <v>86</v>
       </c>
-      <c r="M267" s="18" t="s">
-        <v>196</v>
+      <c r="M267" s="38" t="s">
+        <v>202</v>
       </c>
       <c r="N267" s="1">
         <v>45040</v>
@@ -21577,6 +21647,9 @@
       <c r="L285" t="s">
         <v>86</v>
       </c>
+      <c r="M285" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="N285" s="1">
         <v>45041</v>
       </c>
@@ -21618,6 +21691,9 @@
       <c r="L286" t="s">
         <v>86</v>
       </c>
+      <c r="M286" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="N286" s="1">
         <v>45041</v>
       </c>
@@ -21659,6 +21735,9 @@
       <c r="L287" t="s">
         <v>86</v>
       </c>
+      <c r="M287" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="N287" s="1">
         <v>45041</v>
       </c>
@@ -21700,6 +21779,9 @@
       <c r="L288" t="s">
         <v>86</v>
       </c>
+      <c r="M288" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="N288" s="1">
         <v>45041</v>
       </c>
@@ -21741,6 +21823,9 @@
       <c r="L289" t="s">
         <v>86</v>
       </c>
+      <c r="M289" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="N289" s="1">
         <v>45041</v>
       </c>
@@ -21782,6 +21867,9 @@
       <c r="L290" t="s">
         <v>86</v>
       </c>
+      <c r="M290" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="N290" s="1">
         <v>45041</v>
       </c>
@@ -22224,7 +22312,10 @@
         <v>59</v>
       </c>
       <c r="L304" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M304" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="N304" s="1">
         <v>45041</v>
@@ -22263,7 +22354,10 @@
         <v>59</v>
       </c>
       <c r="L305" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M305" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="N305" s="1">
         <v>45041</v>
@@ -22302,7 +22396,10 @@
         <v>59</v>
       </c>
       <c r="L306" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M306" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="N306" s="1">
         <v>45041</v>
@@ -22341,7 +22438,10 @@
         <v>59</v>
       </c>
       <c r="L307" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M307" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="N307" s="1">
         <v>45041</v>
@@ -22380,7 +22480,10 @@
         <v>59</v>
       </c>
       <c r="L308" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M308" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="N308" s="1">
         <v>45041</v>
@@ -22419,7 +22522,10 @@
         <v>59</v>
       </c>
       <c r="L309" t="s">
-        <v>86</v>
+        <v>87</v>
+      </c>
+      <c r="M309" s="38" t="s">
+        <v>200</v>
       </c>
       <c r="N309" s="1">
         <v>45041</v>
@@ -23015,7 +23121,7 @@
         <v>23</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I325" s="3" t="s">
         <v>159</v>
@@ -23059,7 +23165,7 @@
         <v>23</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J326" s="18" t="s">
         <v>189</v>
@@ -23248,7 +23354,7 @@
         <v>324</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
@@ -23349,20 +23455,48 @@
     <hyperlink ref="J322" r:id="rId18" display="http://10.200.4.202/view.php?id=70"/>
     <hyperlink ref="J323" r:id="rId19" display="http://10.200.4.202/view.php?id=70"/>
     <hyperlink ref="J324" r:id="rId20" display="http://10.200.4.202/view.php?id=70"/>
-    <hyperlink ref="M252" r:id="rId21" display="https://sfytgenl.atlassian.net/browse/PDRMYE-232"/>
-    <hyperlink ref="M253:M256" r:id="rId22" display="https://sfytgenl.atlassian.net/browse/PDRMYE-232"/>
-    <hyperlink ref="M266:M267" r:id="rId23" display="https://sfytgenl.atlassian.net/browse/PDRMYE-232"/>
-    <hyperlink ref="J325" r:id="rId24" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
-    <hyperlink ref="J326" r:id="rId25" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
-    <hyperlink ref="J327" r:id="rId26" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
-    <hyperlink ref="J329" r:id="rId27" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
-    <hyperlink ref="J328" r:id="rId28" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
-    <hyperlink ref="J330" r:id="rId29" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="J325" r:id="rId21" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="J326" r:id="rId22" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="J327" r:id="rId23" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="J329" r:id="rId24" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="J328" r:id="rId25" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="J330" r:id="rId26" tooltip="[asignada] Tipo de Calculo / CPH" display="http://10.200.4.202/view.php?id=71"/>
+    <hyperlink ref="M285" r:id="rId27" display="https://sfytgenl.atlassian.net/browse/PDRMYE-262"/>
+    <hyperlink ref="M286:M290" r:id="rId28" display="https://sfytgenl.atlassian.net/browse/PDRMYE-262"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <drawing r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId32" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId33">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>285</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>286</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId32" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
